--- a/Personal/skill.xlsx
+++ b/Personal/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>grub</t>
   </si>
@@ -157,6 +157,66 @@
   </si>
   <si>
     <t>php</t>
+  </si>
+  <si>
+    <t>virtual machine</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>zookeeper</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>ajax</t>
+  </si>
+  <si>
+    <t>django</t>
+  </si>
+  <si>
+    <t>perl</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>testimony / certification</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>gsm</t>
+  </si>
+  <si>
+    <t>lte</t>
+  </si>
+  <si>
+    <t>Windows GUI</t>
+  </si>
+  <si>
+    <t>Linux GUI</t>
+  </si>
+  <si>
+    <t>purify</t>
+  </si>
+  <si>
+    <t>PureCoverage</t>
+  </si>
+  <si>
+    <t>wireshark</t>
+  </si>
+  <si>
+    <t>netfilter/iptables</t>
+  </si>
+  <si>
+    <t>MAC OSX</t>
+  </si>
+  <si>
+    <t>iOS dev</t>
   </si>
 </sst>
 </file>
@@ -495,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,9 +567,10 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -522,8 +583,14 @@
       <c r="D1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -531,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -539,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -547,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -555,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -563,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -571,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -579,42 +646,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -749,8 +816,102 @@
         <v>46</v>
       </c>
     </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A56" r:id="rId1" display="http://www.ltesting.net/ceshi/ceshijishu/rjcsgj/rational/purecoverage/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Personal/skill.xlsx
+++ b/Personal/skill.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="skill" sheetId="1" r:id="rId1"/>
+    <sheet name="algo books" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>grub</t>
   </si>
@@ -217,6 +217,60 @@
   </si>
   <si>
     <t>iOS dev</t>
+  </si>
+  <si>
+    <t>Powershell</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>Writing Efficient Programs</t>
+  </si>
+  <si>
+    <t>Algorithm Design</t>
+  </si>
+  <si>
+    <t>Programming Pearls</t>
+  </si>
+  <si>
+    <t>More Programming Pearls</t>
+  </si>
+  <si>
+    <t>The Science of Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm 4th </t>
+  </si>
+  <si>
+    <t>Advanced Data Structure</t>
+  </si>
+  <si>
+    <t>数据结构与算法分析</t>
+  </si>
+  <si>
+    <t>算法设计与分析基础</t>
+  </si>
+  <si>
+    <t>算法引论</t>
+  </si>
+  <si>
+    <t>Language Implementation Pattern</t>
+  </si>
+  <si>
+    <t>Algorithms on Strings, Trees and Sequences</t>
+  </si>
+  <si>
+    <t>baidu yun</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
 </sst>
 </file>
@@ -555,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,260 +704,424 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -917,12 +1135,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Personal/skill.xlsx
+++ b/Personal/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
   <si>
     <t>grub</t>
   </si>
@@ -147,9 +147,6 @@
     <t>ruby on rails</t>
   </si>
   <si>
-    <t>duration</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -271,6 +268,12 @@
   </si>
   <si>
     <t>pdf</t>
+  </si>
+  <si>
+    <t>VBA</t>
+  </si>
+  <si>
+    <t>duration (month)</t>
   </si>
 </sst>
 </file>
@@ -609,17 +612,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
@@ -632,16 +635,16 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -721,7 +724,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -737,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -753,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,7 +764,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +820,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +868,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +876,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +884,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +892,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +900,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +908,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +932,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +940,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +948,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,31 +961,31 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -990,7 +993,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -998,31 +1001,31 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -1030,47 +1033,47 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -1078,7 +1081,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -1086,15 +1089,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -1102,26 +1105,34 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,68 +1160,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Personal/skill.xlsx
+++ b/Personal/skill.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="skill" sheetId="1" r:id="rId1"/>
     <sheet name="algo books" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="project" sheetId="3" r:id="rId3"/>
+    <sheet name="company" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
   <si>
     <t>grub</t>
   </si>
@@ -274,6 +275,60 @@
   </si>
   <si>
     <t>duration (month)</t>
+  </si>
+  <si>
+    <t>markdown</t>
+  </si>
+  <si>
+    <t>NSN/SIEMENS</t>
+  </si>
+  <si>
+    <t>start-date</t>
+  </si>
+  <si>
+    <t>end-date</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>PDF/PCRF</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>NSN</t>
+  </si>
+  <si>
+    <t>SIEMENS/NSN</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>acceSS7</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>SysVe</t>
+  </si>
+  <si>
+    <t>OOS</t>
+  </si>
+  <si>
+    <t>LinuxPort</t>
+  </si>
+  <si>
+    <t>JDSU/VIAVI</t>
+  </si>
+  <si>
+    <t>xSight</t>
   </si>
 </sst>
 </file>
@@ -309,8 +364,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +712,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -662,6 +723,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -670,6 +734,9 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -678,6 +745,9 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -686,6 +756,9 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1132,6 +1205,14 @@
         <v>84</v>
       </c>
       <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1148,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,12 +1312,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2005.7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2011.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2011.3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>